--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed5/result_data_KNN.xlsx
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.3</v>
+        <v>-21.643</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.776</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.302</v>
+        <v>-21.279</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
